--- a/donation_data/primary_data_extracted/vfz2022-spd_BEZUPLATNE_edit.xlsx
+++ b/donation_data/primary_data_extracted/vfz2022-spd_BEZUPLATNE_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michs\Dropbox\_research\CzechElectionData\ced\ced\ced\donation_data\primary_data_extracted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vtitl/Documents/GitHub/ced/donation_data/primary_data_extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{897AC197-75BF-4524-8092-16706060FC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB5BF85-599B-F54B-B53B-2203418712D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BD47B32A-7C93-448E-AAD6-98386EE3ED3C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{BD47B32A-7C93-448E-AAD6-98386EE3ED3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1043,2293 +1043,2293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4AF685-54A2-413D-859B-AA4D9A8A5D3E}">
-  <dimension ref="E1:Z163"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I172" sqref="I172"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="V1">
+      <c r="C1">
         <v>17681</v>
       </c>
-      <c r="Z1">
+      <c r="D1">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="V2">
+      <c r="C2">
         <v>25982</v>
       </c>
-      <c r="Z2">
+      <c r="D2">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="V3">
+      <c r="C3">
         <v>27942</v>
       </c>
-      <c r="Z3">
+      <c r="D3">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="N4" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="V4">
+      <c r="C4">
         <v>31271</v>
       </c>
-      <c r="Z4">
+      <c r="D4">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="N5" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="V5">
+      <c r="C5">
         <v>30708</v>
       </c>
-      <c r="Z5">
+      <c r="D5">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="N6" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="V6">
+      <c r="C6">
         <v>25831</v>
       </c>
-      <c r="Z6">
+      <c r="D6">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="N7" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="V7">
+      <c r="C7">
         <v>22598</v>
       </c>
-      <c r="Z7">
+      <c r="D7">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="N8" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="V8">
+      <c r="C8">
         <v>22598</v>
       </c>
-      <c r="Z8">
+      <c r="D8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="N9" t="s">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="V9">
+      <c r="C9">
         <v>17681</v>
       </c>
-      <c r="Z9">
+      <c r="D9">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="N10" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="V10">
+      <c r="C10">
         <v>24550</v>
       </c>
-      <c r="Z10">
+      <c r="D10">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="N11" t="s">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="V11">
+      <c r="C11">
         <v>34433</v>
       </c>
-      <c r="Z11">
+      <c r="D11">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="N12" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="V12">
+      <c r="C12">
         <v>24812</v>
       </c>
-      <c r="Z12">
+      <c r="D12">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="N13" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="V13">
+      <c r="C13">
         <v>22764</v>
       </c>
-      <c r="Z13">
+      <c r="D13">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="N14" t="s">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="V14">
+      <c r="C14">
         <v>23177</v>
       </c>
-      <c r="Z14">
+      <c r="D14">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="N15" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="V15">
+      <c r="C15">
         <v>22766</v>
       </c>
-      <c r="Z15">
+      <c r="D15">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="N16" t="s">
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="V16">
+      <c r="C16">
         <v>23765</v>
       </c>
-      <c r="Z16">
+      <c r="D16">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="N17" t="s">
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="V17">
+      <c r="C17">
         <v>18406</v>
       </c>
-      <c r="Z17">
+      <c r="D17">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="N18" t="s">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="V18">
+      <c r="C18">
         <v>22591</v>
       </c>
-      <c r="Z18">
+      <c r="D18">
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="N19" t="s">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="V19">
+      <c r="C19">
         <v>29011</v>
       </c>
-      <c r="Z19">
+      <c r="D19">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="N20" t="s">
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="V20">
+      <c r="C20">
         <v>28847</v>
       </c>
-      <c r="Z20">
+      <c r="D20">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="N21" t="s">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="V21">
+      <c r="C21">
         <v>25232</v>
       </c>
-      <c r="Z21">
+      <c r="D21">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="N22" t="s">
+      <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="V22">
+      <c r="C22">
         <v>25221</v>
       </c>
-      <c r="Z22">
+      <c r="D22">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="N23" t="s">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="V23">
+      <c r="C23">
         <v>25770</v>
       </c>
-      <c r="Z23">
+      <c r="D23">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="N24" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="V24">
+      <c r="C24">
         <v>22245</v>
       </c>
-      <c r="Z24">
+      <c r="D24">
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="N25" t="s">
+      <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="V25">
+      <c r="C25">
         <v>23505</v>
       </c>
-      <c r="Z25">
+      <c r="D25">
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="N26" t="s">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="V26">
+      <c r="C26">
         <v>22797</v>
       </c>
-      <c r="Z26">
+      <c r="D26">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="N27" t="s">
+      <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="V27">
+      <c r="C27">
         <v>23836</v>
       </c>
-      <c r="Z27">
+      <c r="D27">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="N28" t="s">
+      <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="V28">
+      <c r="C28">
         <v>22838</v>
       </c>
-      <c r="Z28">
+      <c r="D28">
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="N29" t="s">
+      <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="V29">
+      <c r="C29">
         <v>26621</v>
       </c>
-      <c r="Z29">
+      <c r="D29">
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="N30" t="s">
+      <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="V30">
+      <c r="C30">
         <v>27579</v>
       </c>
-      <c r="Z30">
+      <c r="D30">
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="N31" t="s">
+      <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="V31">
+      <c r="C31">
         <v>22099</v>
       </c>
-      <c r="Z31">
+      <c r="D31">
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="N32" t="s">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="V32">
+      <c r="C32">
         <v>25124</v>
       </c>
-      <c r="Z32">
+      <c r="D32">
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="N33" t="s">
+      <c r="B33" t="s">
         <v>57</v>
       </c>
-      <c r="V33">
+      <c r="C33">
         <v>25161</v>
       </c>
-      <c r="Z33">
+      <c r="D33">
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>58</v>
       </c>
-      <c r="N34" t="s">
+      <c r="B34" t="s">
         <v>59</v>
       </c>
-      <c r="V34">
+      <c r="C34">
         <v>18367</v>
       </c>
-      <c r="Z34">
+      <c r="D34">
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>60</v>
       </c>
-      <c r="N35" t="s">
+      <c r="B35" t="s">
         <v>61</v>
       </c>
-      <c r="V35">
+      <c r="C35">
         <v>25665</v>
       </c>
-      <c r="Z35">
+      <c r="D35">
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>62</v>
       </c>
-      <c r="N36" t="s">
+      <c r="B36" t="s">
         <v>63</v>
       </c>
-      <c r="V36">
+      <c r="C36">
         <v>26120</v>
       </c>
-      <c r="Z36">
+      <c r="D36">
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>64</v>
       </c>
-      <c r="N37" t="s">
+      <c r="B37" t="s">
         <v>65</v>
       </c>
-      <c r="V37">
+      <c r="C37">
         <v>29225</v>
       </c>
-      <c r="Z37">
+      <c r="D37">
         <v>35000</v>
       </c>
     </row>
-    <row r="38" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>32</v>
       </c>
-      <c r="N38" t="s">
+      <c r="B38" t="s">
         <v>66</v>
       </c>
-      <c r="V38">
+      <c r="C38">
         <v>30784</v>
       </c>
-      <c r="Z38">
+      <c r="D38">
         <v>600</v>
       </c>
     </row>
-    <row r="39" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="N39" t="s">
+      <c r="B39" t="s">
         <v>67</v>
       </c>
-      <c r="V39">
+      <c r="C39">
         <v>22491</v>
       </c>
-      <c r="Z39">
+      <c r="D39">
         <v>900</v>
       </c>
     </row>
-    <row r="40" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="N40" t="s">
+      <c r="B40" t="s">
         <v>68</v>
       </c>
-      <c r="V40">
+      <c r="C40">
         <v>28374</v>
       </c>
-      <c r="Z40">
+      <c r="D40">
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>69</v>
       </c>
-      <c r="N41" t="s">
+      <c r="B41" t="s">
         <v>70</v>
       </c>
-      <c r="V41">
+      <c r="C41">
         <v>26140</v>
       </c>
-      <c r="Z41">
+      <c r="D41">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="N42" t="s">
+      <c r="B42" t="s">
         <v>72</v>
       </c>
-      <c r="V42">
+      <c r="C42">
         <v>20443</v>
       </c>
-      <c r="Z42">
+      <c r="D42">
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>19</v>
       </c>
-      <c r="N43" t="s">
+      <c r="B43" t="s">
         <v>73</v>
       </c>
-      <c r="V43">
+      <c r="C43">
         <v>15855</v>
       </c>
-      <c r="Z43">
+      <c r="D43">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>71</v>
       </c>
-      <c r="N44" t="s">
+      <c r="B44" t="s">
         <v>74</v>
       </c>
-      <c r="V44">
+      <c r="C44">
         <v>28683</v>
       </c>
-      <c r="Z44">
+      <c r="D44">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>32</v>
       </c>
-      <c r="N45" t="s">
+      <c r="B45" t="s">
         <v>75</v>
       </c>
-      <c r="V45">
+      <c r="C45">
         <v>24604</v>
       </c>
-      <c r="Z45">
+      <c r="D45">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>64</v>
       </c>
-      <c r="N46" t="s">
+      <c r="B46" t="s">
         <v>76</v>
       </c>
-      <c r="V46">
+      <c r="C46">
         <v>19255</v>
       </c>
-      <c r="Z46">
+      <c r="D46">
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>77</v>
       </c>
-      <c r="N47" t="s">
+      <c r="B47" t="s">
         <v>78</v>
       </c>
-      <c r="V47">
+      <c r="C47">
         <v>17624</v>
       </c>
-      <c r="Z47">
+      <c r="D47">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>23</v>
       </c>
-      <c r="N48" t="s">
+      <c r="B48" t="s">
         <v>79</v>
       </c>
-      <c r="V48">
+      <c r="C48">
         <v>23970</v>
       </c>
-      <c r="Z48">
+      <c r="D48">
         <v>800</v>
       </c>
     </row>
-    <row r="49" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>80</v>
       </c>
-      <c r="N49" t="s">
+      <c r="B49" t="s">
         <v>81</v>
       </c>
-      <c r="V49">
+      <c r="C49">
         <v>28240</v>
       </c>
-      <c r="Z49">
+      <c r="D49">
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>82</v>
       </c>
-      <c r="N50" t="s">
+      <c r="B50" t="s">
         <v>83</v>
       </c>
-      <c r="V50">
+      <c r="C50">
         <v>29561</v>
       </c>
-      <c r="Z50">
+      <c r="D50">
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>77</v>
       </c>
-      <c r="N51" t="s">
+      <c r="B51" t="s">
         <v>84</v>
       </c>
-      <c r="V51">
+      <c r="C51">
         <v>28027</v>
       </c>
-      <c r="Z51">
+      <c r="D51">
         <v>900</v>
       </c>
     </row>
-    <row r="52" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>85</v>
       </c>
-      <c r="N52" t="s">
+      <c r="B52" t="s">
         <v>86</v>
       </c>
-      <c r="V52">
+      <c r="C52">
         <v>19157</v>
       </c>
-      <c r="Z52">
+      <c r="D52">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E53" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>21</v>
       </c>
-      <c r="N53" t="s">
+      <c r="B53" t="s">
         <v>87</v>
       </c>
-      <c r="V53">
+      <c r="C53">
         <v>25135</v>
       </c>
-      <c r="Z53">
+      <c r="D53">
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E54" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>85</v>
       </c>
-      <c r="N54" t="s">
+      <c r="B54" t="s">
         <v>88</v>
       </c>
-      <c r="V54">
+      <c r="C54">
         <v>28557</v>
       </c>
-      <c r="Z54">
+      <c r="D54">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>131</v>
       </c>
-      <c r="N55" t="s">
+      <c r="B55" t="s">
         <v>89</v>
       </c>
-      <c r="V55">
+      <c r="C55">
         <v>19256</v>
       </c>
-      <c r="Z55">
+      <c r="D55">
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>71</v>
       </c>
-      <c r="N56" t="s">
+      <c r="B56" t="s">
         <v>90</v>
       </c>
-      <c r="V56">
+      <c r="C56">
         <v>20450</v>
       </c>
-      <c r="Z56">
+      <c r="D56">
         <v>800</v>
       </c>
     </row>
-    <row r="57" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>91</v>
       </c>
-      <c r="N57" t="s">
+      <c r="B57" t="s">
         <v>90</v>
       </c>
-      <c r="V57">
+      <c r="C57">
         <v>30832</v>
       </c>
-      <c r="Z57">
+      <c r="D57">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E58" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
-      <c r="N58" t="s">
+      <c r="B58" t="s">
         <v>92</v>
       </c>
-      <c r="V58">
+      <c r="C58">
         <v>16686</v>
       </c>
-      <c r="Z58">
+      <c r="D58">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E59" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>19</v>
       </c>
-      <c r="N59" t="s">
+      <c r="B59" t="s">
         <v>93</v>
       </c>
-      <c r="V59">
+      <c r="C59">
         <v>25040</v>
       </c>
-      <c r="Z59">
+      <c r="D59">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E60" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>94</v>
       </c>
-      <c r="N60" t="s">
+      <c r="B60" t="s">
         <v>95</v>
       </c>
-      <c r="V60">
+      <c r="C60">
         <v>15944</v>
       </c>
-      <c r="Z60">
+      <c r="D60">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>96</v>
       </c>
-      <c r="N61" t="s">
+      <c r="B61" t="s">
         <v>97</v>
       </c>
-      <c r="V61">
+      <c r="C61">
         <v>28024</v>
       </c>
-      <c r="Z61">
+      <c r="D61">
         <v>800</v>
       </c>
     </row>
-    <row r="62" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E62" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>98</v>
       </c>
-      <c r="N62" t="s">
+      <c r="B62" t="s">
         <v>99</v>
       </c>
-      <c r="V62">
+      <c r="C62">
         <v>23736</v>
       </c>
-      <c r="Z62">
+      <c r="D62">
         <v>5000</v>
       </c>
     </row>
-    <row r="63" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>98</v>
       </c>
-      <c r="N63" t="s">
+      <c r="B63" t="s">
         <v>99</v>
       </c>
-      <c r="V63">
+      <c r="C63">
         <v>23736</v>
       </c>
-      <c r="Z63">
+      <c r="D63">
         <v>5000</v>
       </c>
     </row>
-    <row r="64" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E64" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>98</v>
       </c>
-      <c r="N64" t="s">
+      <c r="B64" t="s">
         <v>99</v>
       </c>
-      <c r="V64">
+      <c r="C64">
         <v>23736</v>
       </c>
-      <c r="Z64">
+      <c r="D64">
         <v>4000</v>
       </c>
     </row>
-    <row r="65" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>98</v>
       </c>
-      <c r="N65" t="s">
+      <c r="B65" t="s">
         <v>99</v>
       </c>
-      <c r="V65">
+      <c r="C65">
         <v>23736</v>
       </c>
-      <c r="Z65">
+      <c r="D65">
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E66" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>45</v>
       </c>
-      <c r="N66" t="s">
+      <c r="B66" t="s">
         <v>100</v>
       </c>
-      <c r="V66">
+      <c r="C66">
         <v>20847</v>
       </c>
-      <c r="Z66">
+      <c r="D66">
         <v>5000</v>
       </c>
     </row>
-    <row r="67" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>45</v>
       </c>
-      <c r="N67" t="s">
+      <c r="B67" t="s">
         <v>100</v>
       </c>
-      <c r="V67">
+      <c r="C67">
         <v>20847</v>
       </c>
-      <c r="Z67">
+      <c r="D67">
         <v>2000</v>
       </c>
     </row>
-    <row r="68" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E68" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>45</v>
       </c>
-      <c r="N68" t="s">
+      <c r="B68" t="s">
         <v>100</v>
       </c>
-      <c r="V68">
+      <c r="C68">
         <v>20847</v>
       </c>
-      <c r="Z68">
+      <c r="D68">
         <v>3000</v>
       </c>
     </row>
-    <row r="69" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>45</v>
       </c>
-      <c r="N69" t="s">
+      <c r="B69" t="s">
         <v>100</v>
       </c>
-      <c r="V69">
+      <c r="C69">
         <v>20847</v>
       </c>
-      <c r="Z69">
+      <c r="D69">
         <v>5000</v>
       </c>
     </row>
-    <row r="70" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E70" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>26</v>
       </c>
-      <c r="N70" t="s">
+      <c r="B70" t="s">
         <v>101</v>
       </c>
-      <c r="V70">
+      <c r="C70">
         <v>26386</v>
       </c>
-      <c r="Z70">
+      <c r="D70">
         <v>500</v>
       </c>
     </row>
-    <row r="71" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>40</v>
       </c>
-      <c r="N71" t="s">
+      <c r="B71" t="s">
         <v>102</v>
       </c>
-      <c r="V71">
+      <c r="C71">
         <v>27627</v>
       </c>
-      <c r="Z71">
+      <c r="D71">
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E72" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>103</v>
       </c>
-      <c r="N72" t="s">
+      <c r="B72" t="s">
         <v>104</v>
       </c>
-      <c r="V72">
+      <c r="C72">
         <v>25555</v>
       </c>
-      <c r="Z72">
+      <c r="D72">
         <v>500</v>
       </c>
     </row>
-    <row r="73" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E73" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="N73" t="s">
+      <c r="B73" t="s">
         <v>105</v>
       </c>
-      <c r="V73">
+      <c r="C73">
         <v>19917</v>
       </c>
-      <c r="Z73">
+      <c r="D73">
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E74" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>8</v>
       </c>
-      <c r="N74" t="s">
+      <c r="B74" t="s">
         <v>106</v>
       </c>
-      <c r="V74">
+      <c r="C74">
         <v>29630</v>
       </c>
-      <c r="Z74">
+      <c r="D74">
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>107</v>
       </c>
-      <c r="N75" t="s">
+      <c r="B75" t="s">
         <v>108</v>
       </c>
-      <c r="V75">
+      <c r="C75">
         <v>30420</v>
       </c>
-      <c r="Z75">
+      <c r="D75">
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E76" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>109</v>
       </c>
-      <c r="N76" t="s">
+      <c r="B76" t="s">
         <v>110</v>
       </c>
-      <c r="V76">
+      <c r="C76">
         <v>27280</v>
       </c>
-      <c r="Z76">
+      <c r="D76">
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>111</v>
       </c>
-      <c r="N77" t="s">
+      <c r="B77" t="s">
         <v>112</v>
       </c>
-      <c r="V77">
+      <c r="C77">
         <v>24387</v>
       </c>
-      <c r="Z77">
+      <c r="D77">
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E78" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>113</v>
       </c>
-      <c r="N78" t="s">
+      <c r="B78" t="s">
         <v>114</v>
       </c>
-      <c r="V78">
+      <c r="C78">
         <v>31564</v>
       </c>
-      <c r="Z78">
+      <c r="D78">
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E79" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>111</v>
       </c>
-      <c r="N79" t="s">
+      <c r="B79" t="s">
         <v>115</v>
       </c>
-      <c r="V79">
+      <c r="C79">
         <v>22758</v>
       </c>
-      <c r="Z79">
+      <c r="D79">
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E80" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>71</v>
       </c>
-      <c r="N80" t="s">
+      <c r="B80" t="s">
         <v>116</v>
       </c>
-      <c r="V80">
+      <c r="C80">
         <v>26559</v>
       </c>
-      <c r="Z80">
+      <c r="D80">
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E81" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>117</v>
       </c>
-      <c r="N81" t="s">
+      <c r="B81" t="s">
         <v>118</v>
       </c>
-      <c r="V81">
+      <c r="C81">
         <v>23160</v>
       </c>
-      <c r="Z81">
+      <c r="D81">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E82" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>119</v>
       </c>
-      <c r="N82" t="s">
+      <c r="B82" t="s">
         <v>120</v>
       </c>
-      <c r="V82">
+      <c r="C82">
         <v>30005</v>
       </c>
-      <c r="Z82">
+      <c r="D82">
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E83" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>85</v>
       </c>
-      <c r="N83" t="s">
+      <c r="B83" t="s">
         <v>121</v>
       </c>
-      <c r="V83">
+      <c r="C83">
         <v>23588</v>
       </c>
-      <c r="Z83">
+      <c r="D83">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E84" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>122</v>
       </c>
-      <c r="N84" t="s">
+      <c r="B84" t="s">
         <v>123</v>
       </c>
-      <c r="V84">
+      <c r="C84">
         <v>20512</v>
       </c>
-      <c r="Z84">
+      <c r="D84">
         <v>30000</v>
       </c>
     </row>
-    <row r="85" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E85" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>124</v>
       </c>
-      <c r="N85" t="s">
+      <c r="B85" t="s">
         <v>125</v>
       </c>
-      <c r="V85">
+      <c r="C85">
         <v>23291</v>
       </c>
-      <c r="Z85">
+      <c r="D85">
         <v>5000</v>
       </c>
     </row>
-    <row r="86" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E86" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>126</v>
       </c>
-      <c r="N86" t="s">
+      <c r="B86" t="s">
         <v>127</v>
       </c>
-      <c r="V86">
+      <c r="C86">
         <v>28862</v>
       </c>
-      <c r="Z86">
+      <c r="D86">
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E87" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>91</v>
       </c>
-      <c r="N87" t="s">
+      <c r="B87" t="s">
         <v>128</v>
       </c>
-      <c r="V87">
+      <c r="C87">
         <v>25663</v>
       </c>
-      <c r="Z87">
+      <c r="D87">
         <v>5000</v>
       </c>
     </row>
-    <row r="88" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E88" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>6</v>
       </c>
-      <c r="N88" t="s">
+      <c r="B88" t="s">
         <v>129</v>
       </c>
-      <c r="V88">
+      <c r="C88">
         <v>21263</v>
       </c>
-      <c r="Z88">
+      <c r="D88">
         <v>1000</v>
       </c>
     </row>
-    <row r="89" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E89" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>38</v>
       </c>
-      <c r="N89" t="s">
+      <c r="B89" t="s">
         <v>130</v>
       </c>
-      <c r="V89">
+      <c r="C89">
         <v>24826</v>
       </c>
-      <c r="Z89">
+      <c r="D89">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E90" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>131</v>
       </c>
-      <c r="N90" t="s">
+      <c r="B90" t="s">
         <v>89</v>
       </c>
-      <c r="V90">
+      <c r="C90">
         <v>19256</v>
       </c>
-      <c r="Z90">
+      <c r="D90">
         <v>1000</v>
       </c>
     </row>
-    <row r="91" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E91" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>32</v>
       </c>
-      <c r="N91" t="s">
+      <c r="B91" t="s">
         <v>132</v>
       </c>
-      <c r="V91">
+      <c r="C91">
         <v>21552</v>
       </c>
-      <c r="Z91">
+      <c r="D91">
         <v>1000</v>
       </c>
     </row>
-    <row r="92" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E92" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>133</v>
       </c>
-      <c r="N92" t="s">
+      <c r="B92" t="s">
         <v>134</v>
       </c>
-      <c r="V92">
+      <c r="C92">
         <v>25644</v>
       </c>
-      <c r="Z92">
+      <c r="D92">
         <v>1000</v>
       </c>
     </row>
-    <row r="93" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E93" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>40</v>
       </c>
-      <c r="N93" t="s">
+      <c r="B93" t="s">
         <v>135</v>
       </c>
-      <c r="V93">
+      <c r="C93">
         <v>24961</v>
       </c>
-      <c r="Z93">
+      <c r="D93">
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E94" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>136</v>
       </c>
-      <c r="N94" t="s">
+      <c r="B94" t="s">
         <v>137</v>
       </c>
-      <c r="V94">
+      <c r="C94">
         <v>26304</v>
       </c>
-      <c r="Z94">
+      <c r="D94">
         <v>1000</v>
       </c>
     </row>
-    <row r="95" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E95" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>103</v>
       </c>
-      <c r="N95" t="s">
+      <c r="B95" t="s">
         <v>138</v>
       </c>
-      <c r="V95">
+      <c r="C95">
         <v>28450</v>
       </c>
-      <c r="Z95">
+      <c r="D95">
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E96" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>139</v>
       </c>
-      <c r="N96" t="s">
+      <c r="B96" t="s">
         <v>140</v>
       </c>
-      <c r="V96">
+      <c r="C96">
         <v>29070</v>
       </c>
-      <c r="Z96">
+      <c r="D96">
         <v>1000</v>
       </c>
     </row>
-    <row r="97" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E97" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>38</v>
       </c>
-      <c r="N97" t="s">
+      <c r="B97" t="s">
         <v>141</v>
       </c>
-      <c r="V97">
+      <c r="C97">
         <v>31297</v>
       </c>
-      <c r="Z97">
+      <c r="D97">
         <v>1000</v>
       </c>
     </row>
-    <row r="98" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E98" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>142</v>
       </c>
-      <c r="N98" t="s">
+      <c r="B98" t="s">
         <v>143</v>
       </c>
-      <c r="V98">
+      <c r="C98">
         <v>28655</v>
       </c>
-      <c r="Z98">
+      <c r="D98">
         <v>1000</v>
       </c>
     </row>
-    <row r="99" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E99" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>144</v>
       </c>
-      <c r="N99" t="s">
+      <c r="B99" t="s">
         <v>145</v>
       </c>
-      <c r="V99">
+      <c r="C99">
         <v>30490</v>
       </c>
-      <c r="Z99">
+      <c r="D99">
         <v>1000</v>
       </c>
     </row>
-    <row r="100" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E100" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>21</v>
       </c>
-      <c r="N100" t="s">
+      <c r="B100" t="s">
         <v>146</v>
       </c>
-      <c r="V100">
+      <c r="C100">
         <v>27903</v>
       </c>
-      <c r="Z100">
+      <c r="D100">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E101" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>147</v>
       </c>
-      <c r="N101" t="s">
+      <c r="B101" t="s">
         <v>148</v>
       </c>
-      <c r="V101">
+      <c r="C101">
         <v>23463</v>
       </c>
-      <c r="Z101">
+      <c r="D101">
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E102" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>19</v>
       </c>
-      <c r="N102" t="s">
+      <c r="B102" t="s">
         <v>149</v>
       </c>
-      <c r="V102">
+      <c r="C102">
         <v>28079</v>
       </c>
-      <c r="Z102">
+      <c r="D102">
         <v>500</v>
       </c>
     </row>
-    <row r="103" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E103" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>77</v>
       </c>
-      <c r="N103" t="s">
+      <c r="B103" t="s">
         <v>150</v>
       </c>
-      <c r="V103">
+      <c r="C103">
         <v>18267</v>
       </c>
-      <c r="Z103">
+      <c r="D103">
         <v>8500</v>
       </c>
     </row>
-    <row r="104" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E104" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>14</v>
       </c>
-      <c r="N104" t="s">
+      <c r="B104" t="s">
         <v>151</v>
       </c>
-      <c r="V104">
+      <c r="C104">
         <v>24407</v>
       </c>
-      <c r="Z104">
+      <c r="D104">
         <v>6500</v>
       </c>
     </row>
-    <row r="105" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E105" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>80</v>
       </c>
-      <c r="N105" t="s">
+      <c r="B105" t="s">
         <v>152</v>
       </c>
-      <c r="V105">
+      <c r="C105">
         <v>28766</v>
       </c>
-      <c r="Z105">
+      <c r="D105">
         <v>6500</v>
       </c>
     </row>
-    <row r="106" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E106" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>144</v>
       </c>
-      <c r="N106" t="s">
+      <c r="B106" t="s">
         <v>198</v>
       </c>
-      <c r="V106" t="s">
+      <c r="C106" t="s">
         <v>199</v>
       </c>
-      <c r="Z106">
+      <c r="D106">
         <v>900</v>
       </c>
     </row>
-    <row r="107" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E107" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>21</v>
       </c>
-      <c r="N107" t="s">
+      <c r="B107" t="s">
         <v>198</v>
       </c>
-      <c r="V107" t="s">
+      <c r="C107" t="s">
         <v>200</v>
       </c>
-      <c r="Z107">
+      <c r="D107">
         <v>900</v>
       </c>
     </row>
-    <row r="108" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E108" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>71</v>
       </c>
-      <c r="N108" t="s">
+      <c r="B108" t="s">
         <v>153</v>
       </c>
-      <c r="V108">
+      <c r="C108">
         <v>33236</v>
       </c>
-      <c r="Z108">
+      <c r="D108">
         <v>600</v>
       </c>
     </row>
-    <row r="109" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E109" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>154</v>
       </c>
-      <c r="N109" t="s">
+      <c r="B109" t="s">
         <v>155</v>
       </c>
-      <c r="V109">
+      <c r="C109">
         <v>18597</v>
       </c>
-      <c r="Z109">
+      <c r="D109">
         <v>600</v>
       </c>
     </row>
-    <row r="110" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E110" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>71</v>
       </c>
-      <c r="N110" t="s">
+      <c r="B110" t="s">
         <v>156</v>
       </c>
-      <c r="V110">
+      <c r="C110">
         <v>19902</v>
       </c>
-      <c r="Z110">
+      <c r="D110">
         <v>900</v>
       </c>
     </row>
-    <row r="111" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E111" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>157</v>
       </c>
-      <c r="N111" t="s">
+      <c r="B111" t="s">
         <v>63</v>
       </c>
-      <c r="V111">
+      <c r="C111">
         <v>30085</v>
       </c>
-      <c r="Z111">
+      <c r="D111">
         <v>600</v>
       </c>
     </row>
-    <row r="112" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E112" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>117</v>
       </c>
-      <c r="N112" t="s">
+      <c r="B112" t="s">
         <v>158</v>
       </c>
-      <c r="V112">
+      <c r="C112">
         <v>17717</v>
       </c>
-      <c r="Z112">
+      <c r="D112">
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E113" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>85</v>
       </c>
-      <c r="N113" t="s">
+      <c r="B113" t="s">
         <v>159</v>
       </c>
-      <c r="V113">
+      <c r="C113">
         <v>18691</v>
       </c>
-      <c r="Z113">
+      <c r="D113">
         <v>800</v>
       </c>
     </row>
-    <row r="114" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E114" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>71</v>
       </c>
-      <c r="N114" t="s">
+      <c r="B114" t="s">
         <v>160</v>
       </c>
-      <c r="V114">
+      <c r="C114">
         <v>30238</v>
       </c>
-      <c r="Z114">
+      <c r="D114">
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E115" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>28</v>
       </c>
-      <c r="N115" t="s">
+      <c r="B115" t="s">
         <v>161</v>
       </c>
-      <c r="V115">
+      <c r="C115">
         <v>27432</v>
       </c>
-      <c r="Z115">
+      <c r="D115">
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E116" t="s">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>103</v>
       </c>
-      <c r="N116" t="s">
+      <c r="B116" t="s">
         <v>162</v>
       </c>
-      <c r="V116">
+      <c r="C116">
         <v>22261</v>
       </c>
-      <c r="Z116">
+      <c r="D116">
         <v>7200</v>
       </c>
     </row>
-    <row r="117" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E117" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>103</v>
       </c>
-      <c r="N117" t="s">
+      <c r="B117" t="s">
         <v>162</v>
       </c>
-      <c r="V117">
+      <c r="C117">
         <v>22261</v>
       </c>
-      <c r="Z117">
+      <c r="D117">
         <v>4200</v>
       </c>
     </row>
-    <row r="118" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E118" t="s">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>103</v>
       </c>
-      <c r="N118" t="s">
+      <c r="B118" t="s">
         <v>162</v>
       </c>
-      <c r="V118">
+      <c r="C118">
         <v>22261</v>
       </c>
-      <c r="Z118">
+      <c r="D118">
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E119" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>103</v>
       </c>
-      <c r="N119" t="s">
+      <c r="B119" t="s">
         <v>162</v>
       </c>
-      <c r="V119">
+      <c r="C119">
         <v>22261</v>
       </c>
-      <c r="Z119">
+      <c r="D119">
         <v>1600</v>
       </c>
     </row>
-    <row r="120" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E120" t="s">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>103</v>
       </c>
-      <c r="N120" t="s">
+      <c r="B120" t="s">
         <v>162</v>
       </c>
-      <c r="V120">
+      <c r="C120">
         <v>22261</v>
       </c>
-      <c r="Z120">
+      <c r="D120">
         <v>600</v>
       </c>
     </row>
-    <row r="121" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E121" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>163</v>
       </c>
-      <c r="N121" t="s">
+      <c r="B121" t="s">
         <v>164</v>
       </c>
-      <c r="V121">
+      <c r="C121">
         <v>28680</v>
       </c>
-      <c r="Z121">
+      <c r="D121">
         <v>4200</v>
       </c>
     </row>
-    <row r="122" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E122" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>163</v>
       </c>
-      <c r="N122" t="s">
+      <c r="B122" t="s">
         <v>164</v>
       </c>
-      <c r="V122">
+      <c r="C122">
         <v>28680</v>
       </c>
-      <c r="Z122">
+      <c r="D122">
         <v>4800</v>
       </c>
     </row>
-    <row r="123" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E123" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>32</v>
       </c>
-      <c r="N123" t="s">
+      <c r="B123" t="s">
         <v>201</v>
       </c>
-      <c r="V123" t="s">
+      <c r="C123" t="s">
         <v>202</v>
       </c>
-      <c r="Z123">
+      <c r="D123">
         <v>1500</v>
       </c>
     </row>
-    <row r="124" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E124" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>203</v>
       </c>
-      <c r="N124" t="s">
+      <c r="B124" t="s">
         <v>204</v>
       </c>
-      <c r="V124" t="s">
+      <c r="C124" t="s">
         <v>205</v>
       </c>
-      <c r="Z124">
+      <c r="D124">
         <v>3600</v>
       </c>
     </row>
-    <row r="125" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E125" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>34</v>
       </c>
-      <c r="N125" t="s">
+      <c r="B125" t="s">
         <v>165</v>
       </c>
-      <c r="V125">
+      <c r="C125">
         <v>28305</v>
       </c>
-      <c r="Z125">
+      <c r="D125">
         <v>900</v>
       </c>
     </row>
-    <row r="126" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E126" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>42</v>
       </c>
-      <c r="N126" t="s">
+      <c r="B126" t="s">
         <v>166</v>
       </c>
-      <c r="V126">
+      <c r="C126">
         <v>29932</v>
       </c>
-      <c r="Z126">
+      <c r="D126">
         <v>800</v>
       </c>
     </row>
-    <row r="127" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E127" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>167</v>
       </c>
-      <c r="N127" t="s">
+      <c r="B127" t="s">
         <v>168</v>
       </c>
-      <c r="V127">
+      <c r="C127">
         <v>34986</v>
       </c>
-      <c r="Z127">
+      <c r="D127">
         <v>600</v>
       </c>
     </row>
-    <row r="128" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E128" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>40</v>
       </c>
-      <c r="N128" t="s">
+      <c r="B128" t="s">
         <v>169</v>
       </c>
-      <c r="V128">
+      <c r="C128">
         <v>29101</v>
       </c>
-      <c r="Z128">
+      <c r="D128">
         <v>700</v>
       </c>
     </row>
-    <row r="129" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E129" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>170</v>
       </c>
-      <c r="N129" t="s">
+      <c r="B129" t="s">
         <v>171</v>
       </c>
-      <c r="V129" t="s">
+      <c r="C129" t="s">
         <v>206</v>
       </c>
-      <c r="Z129">
+      <c r="D129">
         <v>950</v>
       </c>
     </row>
-    <row r="130" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E130" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>172</v>
       </c>
-      <c r="N130" t="s">
+      <c r="B130" t="s">
         <v>173</v>
       </c>
-      <c r="V130">
+      <c r="C130">
         <v>21733</v>
       </c>
-      <c r="Z130">
+      <c r="D130">
         <v>650</v>
       </c>
     </row>
-    <row r="131" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E131" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>172</v>
       </c>
-      <c r="N131" t="s">
+      <c r="B131" t="s">
         <v>173</v>
       </c>
-      <c r="V131">
+      <c r="C131">
         <v>21733</v>
       </c>
-      <c r="Z131">
+      <c r="D131">
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E132" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>26</v>
       </c>
-      <c r="N132" t="s">
+      <c r="B132" t="s">
         <v>207</v>
       </c>
-      <c r="V132">
+      <c r="C132">
         <v>24738</v>
       </c>
-      <c r="Z132">
+      <c r="D132">
         <v>900</v>
       </c>
     </row>
-    <row r="133" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E133" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>19</v>
       </c>
-      <c r="N133" t="s">
+      <c r="B133" t="s">
         <v>208</v>
       </c>
-      <c r="V133">
+      <c r="C133">
         <v>34723</v>
       </c>
-      <c r="Z133">
+      <c r="D133">
         <v>600</v>
       </c>
     </row>
-    <row r="134" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E134" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>174</v>
       </c>
-      <c r="N134" t="s">
+      <c r="B134" t="s">
         <v>175</v>
       </c>
-      <c r="V134">
+      <c r="C134">
         <v>28201</v>
       </c>
-      <c r="Z134">
+      <c r="D134">
         <v>950</v>
       </c>
     </row>
-    <row r="135" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E135" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>176</v>
       </c>
-      <c r="N135" t="s">
+      <c r="B135" t="s">
         <v>177</v>
       </c>
-      <c r="V135">
+      <c r="C135">
         <v>22332</v>
       </c>
-      <c r="Z135">
+      <c r="D135">
         <v>800</v>
       </c>
     </row>
-    <row r="136" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E136" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>107</v>
       </c>
-      <c r="N136" t="s">
+      <c r="B136" t="s">
         <v>178</v>
       </c>
-      <c r="V136">
+      <c r="C136">
         <v>32650</v>
       </c>
-      <c r="Z136">
+      <c r="D136">
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E137" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>107</v>
       </c>
-      <c r="N137" t="s">
+      <c r="B137" t="s">
         <v>178</v>
       </c>
-      <c r="V137">
+      <c r="C137">
         <v>32650</v>
       </c>
-      <c r="Z137">
+      <c r="D137">
         <v>450</v>
       </c>
     </row>
-    <row r="138" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E138" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>0</v>
       </c>
-      <c r="N138" t="s">
+      <c r="B138" t="s">
         <v>179</v>
       </c>
-      <c r="V138">
+      <c r="C138">
         <v>24223</v>
       </c>
-      <c r="Z138">
+      <c r="D138">
         <v>300</v>
       </c>
     </row>
-    <row r="139" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E139" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>176</v>
       </c>
-      <c r="N139" t="s">
+      <c r="B139" t="s">
         <v>180</v>
       </c>
-      <c r="V139">
+      <c r="C139">
         <v>22152</v>
       </c>
-      <c r="Z139">
+      <c r="D139">
         <v>500</v>
       </c>
     </row>
-    <row r="140" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E140" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>0</v>
       </c>
-      <c r="N140" t="s">
+      <c r="B140" t="s">
         <v>181</v>
       </c>
-      <c r="V140">
+      <c r="C140">
         <v>23837</v>
       </c>
-      <c r="Z140">
+      <c r="D140">
         <v>600</v>
       </c>
     </row>
-    <row r="141" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E141" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>182</v>
       </c>
-      <c r="N141" t="s">
+      <c r="B141" t="s">
         <v>183</v>
       </c>
-      <c r="V141">
+      <c r="C141">
         <v>24398</v>
       </c>
-      <c r="Z141">
+      <c r="D141">
         <v>900</v>
       </c>
     </row>
-    <row r="142" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E142" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>69</v>
       </c>
-      <c r="N142" t="s">
+      <c r="B142" t="s">
         <v>184</v>
       </c>
-      <c r="V142">
+      <c r="C142">
         <v>22299</v>
       </c>
-      <c r="Z142">
+      <c r="D142">
         <v>700</v>
       </c>
     </row>
-    <row r="143" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E143" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>32</v>
       </c>
-      <c r="N143" t="s">
+      <c r="B143" t="s">
         <v>185</v>
       </c>
-      <c r="V143">
+      <c r="C143">
         <v>26005</v>
       </c>
-      <c r="Z143">
+      <c r="D143">
         <v>700</v>
       </c>
     </row>
-    <row r="144" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E144" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>186</v>
       </c>
-      <c r="N144" t="s">
+      <c r="B144" t="s">
         <v>187</v>
       </c>
-      <c r="V144">
+      <c r="C144">
         <v>29831</v>
       </c>
-      <c r="Z144">
+      <c r="D144">
         <v>600</v>
       </c>
     </row>
-    <row r="145" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E145" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>186</v>
       </c>
-      <c r="N145" t="s">
+      <c r="B145" t="s">
         <v>187</v>
       </c>
-      <c r="V145">
+      <c r="C145">
         <v>29831</v>
       </c>
-      <c r="Z145">
+      <c r="D145">
         <v>300</v>
       </c>
     </row>
-    <row r="146" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E146" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>32</v>
       </c>
-      <c r="N146" t="s">
+      <c r="B146" t="s">
         <v>188</v>
       </c>
-      <c r="V146">
+      <c r="C146">
         <v>25476</v>
       </c>
-      <c r="Z146">
+      <c r="D146">
         <v>900</v>
       </c>
     </row>
-    <row r="147" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E147" t="s">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>21</v>
       </c>
-      <c r="N147" t="s">
+      <c r="B147" t="s">
         <v>189</v>
       </c>
-      <c r="V147">
+      <c r="C147">
         <v>26545</v>
       </c>
-      <c r="Z147">
+      <c r="D147">
         <v>600</v>
       </c>
     </row>
-    <row r="148" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E148" t="s">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>190</v>
       </c>
-      <c r="N148" t="s">
+      <c r="B148" t="s">
         <v>191</v>
       </c>
-      <c r="V148">
+      <c r="C148">
         <v>32342</v>
       </c>
-      <c r="Z148">
+      <c r="D148">
         <v>600</v>
       </c>
     </row>
-    <row r="149" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E149" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>71</v>
       </c>
-      <c r="N149" t="s">
+      <c r="B149" t="s">
         <v>192</v>
       </c>
-      <c r="V149">
+      <c r="C149">
         <v>24762</v>
       </c>
-      <c r="Z149">
+      <c r="D149">
         <v>600</v>
       </c>
     </row>
-    <row r="150" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E150" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>193</v>
       </c>
-      <c r="N150" t="s">
+      <c r="B150" t="s">
         <v>194</v>
       </c>
-      <c r="V150">
+      <c r="C150">
         <v>31892</v>
       </c>
-      <c r="Z150">
+      <c r="D150">
         <v>600</v>
       </c>
     </row>
-    <row r="151" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E151" t="s">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>117</v>
       </c>
-      <c r="N151" t="s">
+      <c r="B151" t="s">
         <v>195</v>
       </c>
-      <c r="V151">
+      <c r="C151">
         <v>32175</v>
       </c>
-      <c r="Z151">
+      <c r="D151">
         <v>950</v>
       </c>
     </row>
-    <row r="152" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E152" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>71</v>
       </c>
-      <c r="N152" t="s">
+      <c r="B152" t="s">
         <v>192</v>
       </c>
-      <c r="V152">
+      <c r="C152">
         <v>24762</v>
       </c>
-      <c r="Z152">
+      <c r="D152">
         <v>350</v>
       </c>
     </row>
-    <row r="153" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E153" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>196</v>
       </c>
-      <c r="N153" t="s">
+      <c r="B153" t="s">
         <v>197</v>
       </c>
-      <c r="V153">
+      <c r="C153">
         <v>32288</v>
       </c>
-      <c r="Z153">
+      <c r="D153">
         <v>650</v>
       </c>
     </row>
-    <row r="154" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E154" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>209</v>
       </c>
-      <c r="N154" t="s">
+      <c r="B154" t="s">
         <v>210</v>
       </c>
-      <c r="V154" t="s">
+      <c r="C154" t="s">
         <v>211</v>
       </c>
-      <c r="Z154">
+      <c r="D154">
         <v>50000</v>
       </c>
     </row>
-    <row r="155" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E155" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>0</v>
       </c>
-      <c r="N155" t="s">
+      <c r="B155" t="s">
         <v>1</v>
       </c>
-      <c r="V155">
+      <c r="C155">
         <v>17681</v>
       </c>
-      <c r="Z155">
+      <c r="D155">
         <v>300</v>
       </c>
     </row>
-    <row r="156" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E156" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>2</v>
       </c>
-      <c r="N156" t="s">
+      <c r="B156" t="s">
         <v>3</v>
       </c>
-      <c r="V156">
+      <c r="C156">
         <v>25982</v>
       </c>
-      <c r="Z156">
+      <c r="D156">
         <v>300</v>
       </c>
     </row>
-    <row r="157" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E157" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>4</v>
       </c>
-      <c r="N157" t="s">
+      <c r="B157" t="s">
         <v>5</v>
       </c>
-      <c r="V157">
+      <c r="C157">
         <v>27942</v>
       </c>
-      <c r="Z157">
+      <c r="D157">
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E158" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>6</v>
       </c>
-      <c r="N158" t="s">
+      <c r="B158" t="s">
         <v>7</v>
       </c>
-      <c r="V158">
+      <c r="C158">
         <v>31271</v>
       </c>
-      <c r="Z158">
+      <c r="D158">
         <v>300</v>
       </c>
     </row>
-    <row r="159" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E159" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>8</v>
       </c>
-      <c r="N159" t="s">
+      <c r="B159" t="s">
         <v>9</v>
       </c>
-      <c r="V159">
+      <c r="C159">
         <v>30708</v>
       </c>
-      <c r="Z159">
+      <c r="D159">
         <v>300</v>
       </c>
     </row>
-    <row r="160" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E160" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>10</v>
       </c>
-      <c r="N160" t="s">
+      <c r="B160" t="s">
         <v>11</v>
       </c>
-      <c r="V160">
+      <c r="C160">
         <v>25831</v>
       </c>
-      <c r="Z160">
+      <c r="D160">
         <v>300</v>
       </c>
     </row>
-    <row r="161" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E161" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>12</v>
       </c>
-      <c r="N161" t="s">
+      <c r="B161" t="s">
         <v>13</v>
       </c>
-      <c r="V161">
+      <c r="C161">
         <v>22598</v>
       </c>
-      <c r="Z161">
+      <c r="D161">
         <v>300</v>
       </c>
     </row>
-    <row r="162" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E162" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>12</v>
       </c>
-      <c r="N162" t="s">
+      <c r="B162" t="s">
         <v>13</v>
       </c>
-      <c r="V162">
+      <c r="C162">
         <v>22598</v>
       </c>
-      <c r="Z162">
+      <c r="D162">
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="E163" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>0</v>
       </c>
-      <c r="N163" t="s">
+      <c r="B163" t="s">
         <v>1</v>
       </c>
-      <c r="V163">
+      <c r="C163">
         <v>17681</v>
       </c>
-      <c r="Z163">
+      <c r="D163">
         <v>900</v>
       </c>
     </row>
